--- a/10projectPlan/ProjectPlan/CNPMNC_Lab1-template-Project_Plan.xlsx
+++ b/10projectPlan/ProjectPlan/CNPMNC_Lab1-template-Project_Plan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Minh Kha/Đại học/Học kì 2 năm 3/CNPM nang cao/Thuc hanh/Lab1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Đại học\Học kì 2 năm 3\CNPM nang cao\Thuc hanh\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
     <definedName name="Risk_Type">Ref!$B$3:$B$8</definedName>
     <definedName name="Strategy">Ref!$F$3:$F$5</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
   <si>
     <t>Task</t>
   </si>
@@ -356,6 +356,9 @@
   <si>
     <t>Activity Diagram + Mockup Screen</t>
   </si>
+  <si>
+    <t>Minh Kha</t>
+  </si>
 </sst>
 </file>
 
@@ -364,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1047C]m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,21 +621,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -644,6 +632,21 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -658,6 +661,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -952,29 +958,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6328125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="62" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:9" ht="61.5">
       <c r="B1" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1003,11 +1009,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:9" s="24" customFormat="1">
+      <c r="A3" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -1016,7 +1022,7 @@
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1041,7 +1047,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1064,7 +1070,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1089,8 +1095,8 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+    <row r="7" spans="1:9">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1114,11 +1120,11 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+    <row r="8" spans="1:9">
+      <c r="A8" s="25">
         <v>5</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="26" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1137,11 +1143,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="1"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1150,7 +1156,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1173,7 +1179,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1198,11 +1204,11 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+    <row r="12" spans="1:9">
+      <c r="A12" s="25">
         <v>8</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1221,11 +1227,11 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="1"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1234,7 +1240,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -1257,7 +1263,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -1282,7 +1288,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -1307,7 +1313,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -1332,11 +1338,11 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="26" t="s">
         <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1355,11 +1361,11 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="1"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -1368,7 +1374,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -1391,7 +1397,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -1416,7 +1422,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -1441,7 +1447,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -1466,7 +1472,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -1491,7 +1497,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -1516,11 +1522,11 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>20</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="26" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1539,11 +1545,11 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="1"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -1552,8 +1558,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="33">
+    <row r="28" spans="1:9" s="22" customFormat="1" ht="29">
+      <c r="A28" s="28">
         <v>21</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -1562,13 +1568,13 @@
       <c r="C28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="30">
         <v>43135</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="28">
         <v>60</v>
       </c>
       <c r="G28" s="21" t="s">
@@ -1577,7 +1583,7 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -1593,7 +1599,7 @@
       <c r="E29" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="28">
         <v>16</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -1602,11 +1608,11 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
+    <row r="30" spans="1:9">
+      <c r="A30" s="25">
         <v>23</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="27" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1618,18 +1624,18 @@
       <c r="E30" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="28">
         <v>10</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:9" ht="15.5">
+      <c r="A31" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="29"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="1"/>
       <c r="D31" s="16"/>
       <c r="E31" s="18"/>
@@ -1638,7 +1644,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>24</v>
       </c>
@@ -1663,7 +1669,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -1688,11 +1694,11 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>26</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="27" t="s">
         <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1711,11 +1717,11 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="1"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -1724,7 +1730,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>27</v>
       </c>
@@ -1749,7 +1755,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>28</v>
       </c>
@@ -1772,7 +1778,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>29</v>
       </c>
@@ -1795,7 +1801,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>30</v>
       </c>
@@ -1818,7 +1824,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>31</v>
       </c>
@@ -1841,7 +1847,10 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15.5">
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
       <c r="E43" s="11" t="s">
         <v>46</v>
       </c>
@@ -1878,25 +1887,25 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" ht="62" thickBot="1">
       <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -1925,7 +1934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1938,7 +1947,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1951,7 +1960,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1964,7 +1973,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1977,7 +1986,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1990,7 +1999,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2003,7 +2012,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2016,7 +2025,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2029,7 +2038,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2042,7 +2051,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2055,7 +2064,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2068,7 +2077,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2081,7 +2090,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2127,18 +2136,18 @@
       <selection activeCell="G3" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -2161,7 +2170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2230,7 +2239,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2247,7 +2256,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2255,7 +2264,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>

--- a/10projectPlan/ProjectPlan/CNPMNC_Lab1-template-Project_Plan.xlsx
+++ b/10projectPlan/ProjectPlan/CNPMNC_Lab1-template-Project_Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Đại học\Học kì 2 năm 3\CNPM nang cao\Thuc hanh\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh Kha\Documents\QuanLyGaraOto\10projectPlan\ProjectPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>Task</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>Activity Diagram + Mockup Screen</t>
-  </si>
-  <si>
-    <t>Minh Kha</t>
   </si>
 </sst>
 </file>
@@ -1848,9 +1845,6 @@
       <c r="I40" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="15.5">
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
       <c r="E43" s="11" t="s">
         <v>46</v>
       </c>
